--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/121.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/121.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1406660413511388</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.603496450254686</v>
+        <v>-1.606081776661423</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04277936454811052</v>
+        <v>-0.04218910737762276</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1443555405030078</v>
+        <v>-0.1498158128347999</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1325312506327233</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.584641275200625</v>
+        <v>-1.588820295967678</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.07384892798346479</v>
+        <v>-0.07189242221568803</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1178301702708486</v>
+        <v>-0.1242726305343323</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1308152396269065</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.633568085567136</v>
+        <v>-1.637282770693405</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1217400337681595</v>
+        <v>-0.1195852015910989</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1135063397446356</v>
+        <v>-0.1193003041301435</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1341965582689233</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.728010019854738</v>
+        <v>-1.731081718169956</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1482654040003187</v>
+        <v>-0.1469668382252456</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1241813374252969</v>
+        <v>-0.1304663957766505</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.137223864435243</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.760566244350161</v>
+        <v>-1.760176674617639</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1088834455853755</v>
+        <v>-0.1090266813254139</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1145263041352385</v>
+        <v>-0.1202777700044712</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1336935131190694</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.621707064478574</v>
+        <v>-1.619143774339536</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04445884295053835</v>
+        <v>-0.04450606352417737</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1157587611072169</v>
+        <v>-0.1207893262188939</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.11994411511327</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.331665709034739</v>
+        <v>-1.332333880151731</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01028688782710042</v>
+        <v>-0.007049130494584905</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1100781260984427</v>
+        <v>-0.1167362269815446</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.09513441941566439</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9095389650078357</v>
+        <v>-0.9135511397480311</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01198210642074126</v>
+        <v>-0.003221115991581632</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0699642487920947</v>
+        <v>-0.07662077565607531</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.05863998110766731</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3808818198417409</v>
+        <v>-0.3906061099731365</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.06009357488241808</v>
+        <v>-0.04795473941894718</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02296403783005616</v>
+        <v>-0.02903975163827681</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.009713884428943099</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1859712603313971</v>
+        <v>0.1708779909772448</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1216660548694584</v>
+        <v>-0.1035191884199828</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05997102967127708</v>
+        <v>0.05304534553755406</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.05179434385571784</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8669674851238971</v>
+        <v>0.8464438498012574</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2520892792604334</v>
+        <v>-0.2293761833400645</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1397250045284616</v>
+        <v>0.1324672023601442</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1249639973092139</v>
       </c>
       <c r="E13" t="n">
-        <v>1.562676066643195</v>
+        <v>1.536803914346375</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4589641863921041</v>
+        <v>-0.4313055223926084</v>
       </c>
       <c r="G13" t="n">
-        <v>0.258173091444581</v>
+        <v>0.2510915794178492</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2074200577959382</v>
       </c>
       <c r="E14" t="n">
-        <v>2.288472023666155</v>
+        <v>2.257487457263351</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6911508950134111</v>
+        <v>-0.6608289906606747</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3792844187139411</v>
+        <v>0.3709720237343522</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.293380043980157</v>
       </c>
       <c r="E15" t="n">
-        <v>3.022360012991722</v>
+        <v>2.987061060177433</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9401001202670098</v>
+        <v>-0.9062390339200288</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4912522689076655</v>
+        <v>0.4828029342645234</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3749926769166574</v>
       </c>
       <c r="E16" t="n">
-        <v>3.642704558983142</v>
+        <v>3.607589766406045</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.227011538688139</v>
+        <v>-1.185302393002352</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6385253679921644</v>
+        <v>0.6259033086584542</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4495019243644791</v>
       </c>
       <c r="E17" t="n">
-        <v>4.237395741335605</v>
+        <v>4.199735759839364</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.48344286383484</v>
+        <v>-1.435983826298942</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7884837436976022</v>
+        <v>0.7749078287763838</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5228156017285766</v>
       </c>
       <c r="E18" t="n">
-        <v>4.76546026830253</v>
+        <v>4.728788770814466</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.725275161631478</v>
+        <v>-1.67580688868724</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9262639334615366</v>
+        <v>0.9102372707684531</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6005624312541251</v>
       </c>
       <c r="E19" t="n">
-        <v>5.19564284219225</v>
+        <v>5.158206371411234</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.016486800292</v>
+        <v>-1.961752646377451</v>
       </c>
       <c r="G19" t="n">
-        <v>1.071487659650102</v>
+        <v>1.054765280505404</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6797620429347515</v>
       </c>
       <c r="E20" t="n">
-        <v>5.533649282319481</v>
+        <v>5.49563672054007</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.270887640772224</v>
+        <v>-2.214250497740021</v>
       </c>
       <c r="G20" t="n">
-        <v>1.222591921275847</v>
+        <v>1.205454001083125</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.7528789827681821</v>
       </c>
       <c r="E21" t="n">
-        <v>5.818179996819643</v>
+        <v>5.780307522742026</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.494201603606759</v>
+        <v>-2.435219172083819</v>
       </c>
       <c r="G21" t="n">
-        <v>1.359109747704498</v>
+        <v>1.342961885539074</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.8150944601196748</v>
       </c>
       <c r="E22" t="n">
-        <v>6.023380147606249</v>
+        <v>5.987405940588922</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.699319118389497</v>
+        <v>-2.640693989207092</v>
       </c>
       <c r="G22" t="n">
-        <v>1.474907186420347</v>
+        <v>1.457791302495323</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.8643682036173089</v>
       </c>
       <c r="E23" t="n">
-        <v>6.164226526618477</v>
+        <v>6.125412789106323</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.818870592709648</v>
+        <v>-2.762150813673578</v>
       </c>
       <c r="G23" t="n">
-        <v>1.574226218955299</v>
+        <v>1.557078854647849</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8995127832701439</v>
       </c>
       <c r="E24" t="n">
-        <v>6.268873613879032</v>
+        <v>6.228915564465693</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.890923679015869</v>
+        <v>-2.8372299517405</v>
       </c>
       <c r="G24" t="n">
-        <v>1.621665581252181</v>
+        <v>1.60488024134263</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.9183930063371912</v>
       </c>
       <c r="E25" t="n">
-        <v>6.286038292396817</v>
+        <v>6.246735034937938</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.969145346258468</v>
+        <v>-2.915177739655991</v>
       </c>
       <c r="G25" t="n">
-        <v>1.671325884529217</v>
+        <v>1.656865370861828</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9176258338542471</v>
       </c>
       <c r="E26" t="n">
-        <v>6.273765665308034</v>
+        <v>6.23599078041594</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.030188955820751</v>
+        <v>-2.977118540117416</v>
       </c>
       <c r="G26" t="n">
-        <v>1.689863107720775</v>
+        <v>1.675446666588782</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.8968251062396765</v>
       </c>
       <c r="E27" t="n">
-        <v>6.176702202173907</v>
+        <v>6.14034078645274</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.043926207701903</v>
+        <v>-2.99220157834728</v>
       </c>
       <c r="G27" t="n">
-        <v>1.696165480282463</v>
+        <v>1.682071713070337</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.8594044245684416</v>
       </c>
       <c r="E28" t="n">
-        <v>6.011039837695252</v>
+        <v>5.977629707826523</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.054154970961675</v>
+        <v>-3.002466544046843</v>
       </c>
       <c r="G28" t="n">
-        <v>1.681462567670394</v>
+        <v>1.668415523173932</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.810170792088699</v>
       </c>
       <c r="E29" t="n">
-        <v>5.839276575102436</v>
+        <v>5.808145624921351</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.010034427982056</v>
+        <v>-2.960733001064676</v>
       </c>
       <c r="G29" t="n">
-        <v>1.644370807076943</v>
+        <v>1.631518940951523</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7537283937554192</v>
       </c>
       <c r="E30" t="n">
-        <v>5.644929286157197</v>
+        <v>5.616499352788264</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.980415323166981</v>
+        <v>-2.933351364430529</v>
       </c>
       <c r="G30" t="n">
-        <v>1.574018448431287</v>
+        <v>1.562509220616337</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.6935772339314223</v>
       </c>
       <c r="E31" t="n">
-        <v>5.404275928682414</v>
+        <v>5.378158229402671</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.87789158770106</v>
+        <v>-2.834866562029867</v>
       </c>
       <c r="G31" t="n">
-        <v>1.499351703374147</v>
+        <v>1.487984137280113</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.6313603928079758</v>
       </c>
       <c r="E32" t="n">
-        <v>5.172895117851213</v>
+        <v>5.146497243167879</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.816491462807802</v>
+        <v>-2.773020989725281</v>
       </c>
       <c r="G32" t="n">
-        <v>1.425930007441955</v>
+        <v>1.414886689286909</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.5674776404664956</v>
       </c>
       <c r="E33" t="n">
-        <v>4.877727182129301</v>
+        <v>4.852547598245854</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.69105709202179</v>
+        <v>-2.650415131300246</v>
       </c>
       <c r="G33" t="n">
-        <v>1.351502513291252</v>
+        <v>1.341644431534545</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.5028027972259597</v>
       </c>
       <c r="E34" t="n">
-        <v>4.615841880727293</v>
+        <v>4.594229024172713</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.614265421150893</v>
+        <v>-2.574305010708872</v>
       </c>
       <c r="G34" t="n">
-        <v>1.25070705082052</v>
+        <v>1.241173217002801</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.4380224093380552</v>
       </c>
       <c r="E35" t="n">
-        <v>4.299783563227479</v>
+        <v>4.282329265191375</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.539526271214173</v>
+        <v>-2.501940268616634</v>
       </c>
       <c r="G35" t="n">
-        <v>1.158992104660571</v>
+        <v>1.149655023233015</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.3742333525152718</v>
       </c>
       <c r="E36" t="n">
-        <v>3.959918206517991</v>
+        <v>3.943880525691058</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.442671365613617</v>
+        <v>-2.406502767234809</v>
       </c>
       <c r="G36" t="n">
-        <v>1.077881325320825</v>
+        <v>1.071396366541067</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.3130783963512229</v>
       </c>
       <c r="E37" t="n">
-        <v>3.676149317272539</v>
+        <v>3.661328353226372</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.373460170830904</v>
+        <v>-2.338285565527198</v>
       </c>
       <c r="G37" t="n">
-        <v>0.991595171110243</v>
+        <v>0.9844129218597479</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.2556544026101468</v>
       </c>
       <c r="E38" t="n">
-        <v>3.373729875458796</v>
+        <v>3.363958364753761</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.305411389169272</v>
+        <v>-2.270745979051306</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9015219268938111</v>
+        <v>0.8957547208333654</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.20280729142512</v>
       </c>
       <c r="E39" t="n">
-        <v>3.054539259907593</v>
+        <v>3.047227941089151</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.226552244182547</v>
+        <v>-2.194294296310611</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8127850249113635</v>
+        <v>0.8080897258725236</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.1547461424798939</v>
       </c>
       <c r="E40" t="n">
-        <v>2.775846582328336</v>
+        <v>2.76649690874781</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.153082540667155</v>
+        <v>-2.120091886894254</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7454925594375166</v>
+        <v>0.7416063062270252</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.1102761512086374</v>
       </c>
       <c r="E41" t="n">
-        <v>2.478251509121379</v>
+        <v>2.470345211075085</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.091893334336152</v>
+        <v>-2.061414815080846</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6866588727215395</v>
+        <v>0.6841278499744879</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.06880941793103203</v>
       </c>
       <c r="E42" t="n">
-        <v>2.20108248205154</v>
+        <v>2.195801647899577</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.005338809865388</v>
+        <v>-1.976953736041412</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6141658480709149</v>
+        <v>0.613098663106673</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.02992607005459045</v>
       </c>
       <c r="E43" t="n">
-        <v>1.948195847966008</v>
+        <v>1.943607582227417</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.942482717284927</v>
+        <v>-1.913531783586843</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5443628220985933</v>
+        <v>0.5421591953287723</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.006523143740713213</v>
       </c>
       <c r="E44" t="n">
-        <v>1.746590756852452</v>
+        <v>1.741089560023506</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.890170191788499</v>
+        <v>-1.862489491521305</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4777975534587873</v>
+        <v>0.4754632831018983</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.04011208404108108</v>
       </c>
       <c r="E45" t="n">
-        <v>1.532838960179819</v>
+        <v>1.530487375612596</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.804834745127182</v>
+        <v>-1.777615232462529</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4269583098598964</v>
+        <v>0.424872734524173</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.0707057070052656</v>
       </c>
       <c r="E46" t="n">
-        <v>1.33736624756285</v>
+        <v>1.333755447698586</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.744904754093219</v>
+        <v>-1.718739834239837</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3743073702523884</v>
+        <v>0.3740618232694654</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.09798703927889733</v>
       </c>
       <c r="E47" t="n">
-        <v>1.182257681292517</v>
+        <v>1.180079238828637</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.713237850401331</v>
+        <v>-1.687711982311197</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3272882710608942</v>
+        <v>0.3251476050559253</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.1220929957630172</v>
       </c>
       <c r="E48" t="n">
-        <v>1.004889336608749</v>
+        <v>1.004256580921986</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.650733551094481</v>
+        <v>-1.624912554419103</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2561221445295262</v>
+        <v>0.2548582071751218</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.1433523958179291</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8585999994750626</v>
+        <v>0.8578066938379271</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.600549099450051</v>
+        <v>-1.574584867034635</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2213315998914171</v>
+        <v>0.2203383938258764</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1625390938362021</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7588969062745132</v>
+        <v>0.7581445251345315</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.550210393931733</v>
+        <v>-1.522859450670452</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1794784314560318</v>
+        <v>0.1781940318530504</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1806590803215</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6434567698991994</v>
+        <v>0.6432316851648534</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.513161918864118</v>
+        <v>-1.485360806134145</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1455236909713334</v>
+        <v>0.1440267987869764</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1981596596693491</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5367256813220425</v>
+        <v>0.534635383928955</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.46883675339873</v>
+        <v>-1.442030420753419</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1058410949042217</v>
+        <v>0.1055215690225977</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2141058236338525</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4690585992973259</v>
+        <v>0.4647898594403584</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.428171969399927</v>
+        <v>-1.403175758744112</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07414349783946847</v>
+        <v>0.07305112856928579</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2278279624837036</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3789460046028615</v>
+        <v>0.3718519004231592</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.377401195632813</v>
+        <v>-1.349983356558876</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04291810651110543</v>
+        <v>0.04266626345169732</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2404686630061622</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2898628184137277</v>
+        <v>0.2803573169401929</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.345677627252558</v>
+        <v>-1.31842742121504</v>
       </c>
       <c r="G55" t="n">
-        <v>0.008012658477141377</v>
+        <v>0.008971236122013495</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2539768883491521</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2263747571560645</v>
+        <v>0.215452638473359</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.325380650683386</v>
+        <v>-1.298246135051283</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.008747497126468346</v>
+        <v>-0.009056004874243281</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2700847134856396</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1506250869434689</v>
+        <v>0.1393409438628643</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.332300825750184</v>
+        <v>-1.3053339431545</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04475318452622158</v>
+        <v>-0.04491373447659425</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2902675529768053</v>
       </c>
       <c r="E58" t="n">
-        <v>0.08735896238190904</v>
+        <v>0.07564511208118933</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.311865335498337</v>
+        <v>-1.286304838987536</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.07465167773532815</v>
+        <v>-0.07529072949857622</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3151861539382038</v>
       </c>
       <c r="E59" t="n">
-        <v>0.05078348006024497</v>
+        <v>0.03747672240876895</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.322198771029676</v>
+        <v>-1.296243195719428</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09982968759965395</v>
+        <v>-0.09986274200120127</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3441325476886244</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.001850145336928733</v>
+        <v>-0.01803263592302111</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.325696241517206</v>
+        <v>-1.301291862051</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1042668475026006</v>
+        <v>-0.1051467241914077</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3765343126334977</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.03966910276442036</v>
+        <v>-0.05732802328629277</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.305607822481607</v>
+        <v>-1.281811801405783</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1354198339513838</v>
+        <v>-0.136069903848481</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4119557957953218</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.09371147527515818</v>
+        <v>-0.1115986285696192</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.33055287751598</v>
+        <v>-1.30609576840921</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1427673552096154</v>
+        <v>-0.1440234224684133</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4491047086367276</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1361863812634572</v>
+        <v>-0.1556223693732781</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.370711614367285</v>
+        <v>-1.345311667806856</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1618476149980224</v>
+        <v>-0.1624630564744509</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4870727467895327</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.1897518259804409</v>
+        <v>-0.2124554777860821</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.412530941391562</v>
+        <v>-1.386011867235888</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1773926278399879</v>
+        <v>-0.1788800759096171</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.5251027748083986</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.2419541701383782</v>
+        <v>-0.2669810741670592</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.445240632751312</v>
+        <v>-1.418843545077539</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2028382209549349</v>
+        <v>-0.2040895661563689</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5622299568010626</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.3086894328432848</v>
+        <v>-0.3331071914720224</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.486809690735302</v>
+        <v>-1.461862274672247</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2085141339063451</v>
+        <v>-0.2102896274751723</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5985402224913502</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.2952252732796787</v>
+        <v>-0.3222197012099855</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.533000068859432</v>
+        <v>-1.508521710494524</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2415669614345383</v>
+        <v>-0.2435203191640724</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6333330363382654</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.3235387292336355</v>
+        <v>-0.3475078924128024</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.564891270276105</v>
+        <v>-1.538029846961548</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2519240072526968</v>
+        <v>-0.2537042228788879</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6658677213685263</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.3518726474361692</v>
+        <v>-0.3755490430587741</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.624701635856849</v>
+        <v>-1.596492065164898</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2585789600975561</v>
+        <v>-0.259033851623612</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6963477905779493</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3784043137448136</v>
+        <v>-0.4017391472180963</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.642319631881568</v>
+        <v>-1.615011974146122</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.268984800508475</v>
+        <v>-0.2693798793079215</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.7242155769184935</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.3859533094505717</v>
+        <v>-0.4074449665328113</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.681415118816434</v>
+        <v>-1.651951054884807</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2877738667594413</v>
+        <v>-0.2877109059945893</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.748757955991659</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.3845020638207324</v>
+        <v>-0.4051028260803158</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.714514379908706</v>
+        <v>-1.684257797349503</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2853262670258187</v>
+        <v>-0.2850885901385023</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7692296899931956</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.3459921119989898</v>
+        <v>-0.3648299728427165</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.738507153374692</v>
+        <v>-1.709889124720763</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2880886705837014</v>
+        <v>-0.2866090926096788</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7845765133902729</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.3042994935139772</v>
+        <v>-0.3234820645452687</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.771259343250717</v>
+        <v>-1.742306835533512</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.292913039190488</v>
+        <v>-0.2915279023637434</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7940794490788297</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.2417951942071269</v>
+        <v>-0.2587347879905649</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.790090121008397</v>
+        <v>-1.761607457998901</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2972289996210945</v>
+        <v>-0.2944492818528775</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7971492804481056</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1343888514269319</v>
+        <v>-0.1508530914357371</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.798032621494481</v>
+        <v>-1.769870271376169</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2805963395663101</v>
+        <v>-0.2769288750136795</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.7929695624856816</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.04872600878838452</v>
+        <v>-0.06338799690330042</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.784315044852345</v>
+        <v>-1.756181027078217</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2671904187101922</v>
+        <v>-0.2629988057901684</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7812494577443239</v>
       </c>
       <c r="E78" t="n">
-        <v>0.08615168971587142</v>
+        <v>0.07287169038945752</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.788091903733906</v>
+        <v>-1.760150703302137</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2401597883400955</v>
+        <v>-0.2343784161075581</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.7619668112372804</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2138738972946944</v>
+        <v>0.2006710249052243</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.816395128563575</v>
+        <v>-1.789108720086267</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2234122248894561</v>
+        <v>-0.2181235206418858</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.7353548225273728</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3608778391094509</v>
+        <v>0.3468848091210878</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.771962929797938</v>
+        <v>-1.747793079180805</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1973732265657789</v>
+        <v>-0.1914643587844161</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.7024091263403996</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4903676701614946</v>
+        <v>0.4778306078603345</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.749596905093816</v>
+        <v>-1.727995853682646</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1685340482253077</v>
+        <v>-0.1631792351746427</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.6640952041760956</v>
       </c>
       <c r="E82" t="n">
-        <v>0.670010472475542</v>
+        <v>0.6547739673813514</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.709404326831403</v>
+        <v>-1.690019494343024</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1424021827734737</v>
+        <v>-0.1375117053635924</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.6208864231842252</v>
       </c>
       <c r="E83" t="n">
-        <v>0.842431675061062</v>
+        <v>0.8292728752069882</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.638854428786024</v>
+        <v>-1.622631800712339</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1246016005306842</v>
+        <v>-0.11740833314634</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.5736710973364459</v>
       </c>
       <c r="E84" t="n">
-        <v>1.025118630355705</v>
+        <v>1.009770369903902</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.557683836719669</v>
+        <v>-1.545245937623151</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1088330769734939</v>
+        <v>-0.1010700146672389</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.5234605029918152</v>
       </c>
       <c r="E85" t="n">
-        <v>1.172686071015887</v>
+        <v>1.155458431733251</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.45295962252217</v>
+        <v>-1.440781436580667</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.08949310403007232</v>
+        <v>-0.07998445451829488</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4705635226486437</v>
       </c>
       <c r="E86" t="n">
-        <v>1.333834148654651</v>
+        <v>1.318177380455074</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.335322942463081</v>
+        <v>-1.325534117547712</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05942619077498659</v>
+        <v>-0.04985772853659971</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.4159084314552279</v>
       </c>
       <c r="E87" t="n">
-        <v>1.47546753722753</v>
+        <v>1.457410389867968</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.204354320446576</v>
+        <v>-1.196362238358172</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.03575766524798815</v>
+        <v>-0.0255816316287792</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.3603136961951062</v>
       </c>
       <c r="E88" t="n">
-        <v>1.564657756716912</v>
+        <v>1.550116968074337</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.057613239825077</v>
+        <v>-1.05219546600956</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.02152853239142993</v>
+        <v>-0.01179794618354908</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.3044411134391915</v>
       </c>
       <c r="E89" t="n">
-        <v>1.670159536360333</v>
+        <v>1.654427215242933</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9106455004501101</v>
+        <v>-0.9090628242236423</v>
       </c>
       <c r="G89" t="n">
-        <v>0.002517757724680676</v>
+        <v>0.01276304818522685</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.2504007937797204</v>
       </c>
       <c r="E90" t="n">
-        <v>1.713685887121661</v>
+        <v>1.698698077048636</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7180697700258954</v>
+        <v>-0.720794397124867</v>
       </c>
       <c r="G90" t="n">
-        <v>0.003408652547336865</v>
+        <v>0.0149336205535005</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.2011953302597939</v>
       </c>
       <c r="E91" t="n">
-        <v>1.729824305172357</v>
+        <v>1.718771542902584</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5328502179650797</v>
+        <v>-0.5362438031906039</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01416527094198532</v>
+        <v>-0.004184415693817653</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.16176243593075</v>
       </c>
       <c r="E92" t="n">
-        <v>1.701841393233874</v>
+        <v>1.69215645358051</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3683793859612495</v>
+        <v>-0.373433561359746</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.01740775033186473</v>
+        <v>-0.007008205997431086</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1377226970370592</v>
       </c>
       <c r="E93" t="n">
-        <v>1.657701175015238</v>
+        <v>1.649990055339986</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2157262895201449</v>
+        <v>-0.221375444146493</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03196900122301739</v>
+        <v>-0.02340791122226295</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1312638481603192</v>
       </c>
       <c r="E94" t="n">
-        <v>1.558407326786227</v>
+        <v>1.552829003020338</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.07675928933874976</v>
+        <v>-0.08384709744196676</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.03852006880587085</v>
+        <v>-0.02937186967287126</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1405830805225534</v>
       </c>
       <c r="E95" t="n">
-        <v>1.488892346313104</v>
+        <v>1.482939405996344</v>
       </c>
       <c r="F95" t="n">
-        <v>0.02989939435882744</v>
+        <v>0.02309018764008066</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.07341135066774321</v>
+        <v>-0.06544523989484043</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1596202289481637</v>
       </c>
       <c r="E96" t="n">
-        <v>1.404375389594863</v>
+        <v>1.399417229362766</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1122929992824332</v>
+        <v>0.1044496620009919</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.102400060824738</v>
+        <v>-0.09457403775363095</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.18100192928424</v>
       </c>
       <c r="E97" t="n">
-        <v>1.32401856541422</v>
+        <v>1.320220457274522</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1754757008305642</v>
+        <v>0.1678779105320457</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1224011217991058</v>
+        <v>-0.1137030921347982</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2005480782473643</v>
       </c>
       <c r="E98" t="n">
-        <v>1.229744264163037</v>
+        <v>1.224732587280816</v>
       </c>
       <c r="F98" t="n">
-        <v>0.208783519456408</v>
+        <v>0.2003121485455677</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1427878174581923</v>
+        <v>-0.1348468909912303</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2150136268143761</v>
       </c>
       <c r="E99" t="n">
-        <v>1.144015312721395</v>
+        <v>1.138197738049068</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2293952998498405</v>
+        <v>0.2218573222779315</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.145115791738596</v>
+        <v>-0.1374393004840126</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2260243127455836</v>
       </c>
       <c r="E100" t="n">
-        <v>1.055657749347181</v>
+        <v>1.050364323042247</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2413908995732731</v>
+        <v>0.2338151455424528</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1595810274633493</v>
+        <v>-0.1519580528588901</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2356012764221771</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9651311876238146</v>
+        <v>0.9600959004547736</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2365712530238503</v>
+        <v>0.2265353071064372</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1735960937194107</v>
+        <v>-0.1653199011796117</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2514788224566326</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9037570340460581</v>
+        <v>0.8997275450955283</v>
       </c>
       <c r="F102" t="n">
-        <v>0.242552525684793</v>
+        <v>0.2329856374655274</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1994556538632597</v>
+        <v>-0.1903656934377482</v>
       </c>
     </row>
   </sheetData>
